--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1520167.42108512</v>
+        <v>-1522735.621364485</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10120672.17103262</v>
+        <v>10120672.17103263</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.58015647442517</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>181.302040838815</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7619254218789</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0092538734576</v>
+        <v>355.0092538734577</v>
       </c>
       <c r="F11" t="n">
         <v>379.9549295429073</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0006094546493</v>
+        <v>384.0006094546494</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6866481885163</v>
+        <v>267.6866481885164</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65581357412177</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>82.26664558937168</v>
       </c>
       <c r="T11" t="n">
-        <v>176.996853940816</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>224.0740557600978</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8311422713307</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>322.3198525186089</v>
@@ -1436,7 +1436,7 @@
         <v>342.8099844796649</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3168224572494</v>
+        <v>359.3168224572495</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247811</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9108639831331</v>
+        <v>152.9108639831332</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3257048998237</v>
+        <v>26.18545253983668</v>
       </c>
       <c r="D13" t="n">
         <v>121.6943568194082</v>
       </c>
       <c r="E13" t="n">
-        <v>119.512846447765</v>
+        <v>119.5128464477651</v>
       </c>
       <c r="F13" t="n">
         <v>118.4999318241271</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1046920602241</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8338987155166</v>
+        <v>117.8338987155167</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43130421103396</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01103647124317</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8479091326377</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>192.6278330773651</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2907220068087</v>
+        <v>259.2907220068088</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2165271250238</v>
+        <v>225.2165271250239</v>
       </c>
       <c r="W13" t="n">
-        <v>43.55712940209516</v>
+        <v>259.6018821377869</v>
       </c>
       <c r="X13" t="n">
         <v>198.788539190233</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6635371532906</v>
+        <v>191.6635371532907</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>355.8127254646764</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3517755722033</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7619254218788</v>
+        <v>327.7619254218787</v>
       </c>
       <c r="E14" t="n">
         <v>355.0092538734576</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9549295429073</v>
+        <v>231.9188508802311</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0006094546493</v>
+        <v>384.0006094546492</v>
       </c>
       <c r="H14" t="n">
-        <v>16.41887705142248</v>
+        <v>267.6866481885162</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26664558937165</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>300.8311422713307</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3198525186089</v>
+        <v>322.3198525186088</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8099844796649</v>
+        <v>342.8099844796648</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3168224572494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1765,25 +1765,25 @@
         <v>152.9108639831331</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3257048998237</v>
+        <v>140.3257048998236</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6943568194082</v>
+        <v>121.6943568194081</v>
       </c>
       <c r="E16" t="n">
         <v>119.512846447765</v>
       </c>
       <c r="F16" t="n">
-        <v>118.4999318241271</v>
+        <v>82.30011427519563</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1046920602241</v>
+        <v>139.104692060224</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8338987155166</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43130421103393</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01103647124316</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>162.8479091326377</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1825,10 +1825,10 @@
         <v>225.2165271250238</v>
       </c>
       <c r="W16" t="n">
-        <v>136.9737343236992</v>
+        <v>259.6018821377868</v>
       </c>
       <c r="X16" t="n">
-        <v>198.788539190233</v>
+        <v>198.7885391902329</v>
       </c>
       <c r="Y16" t="n">
         <v>191.6635371532906</v>
@@ -1844,22 +1844,22 @@
         <v>308.8375888460839</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3766389536109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7867888032863</v>
+        <v>280.7867888032862</v>
       </c>
       <c r="E17" t="n">
         <v>308.0341172548651</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9797929243148</v>
+        <v>332.9797929243147</v>
       </c>
       <c r="G17" t="n">
-        <v>181.0858482276478</v>
+        <v>337.0254728360567</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7115115699238</v>
+        <v>220.7115115699237</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29150897077918</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0217173222235</v>
+        <v>130.0217173222234</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>170.7285233159792</v>
       </c>
       <c r="V17" t="n">
         <v>253.8560056527382</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3447159000164</v>
+        <v>275.3447159000163</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8348478610724</v>
+        <v>295.8348478610723</v>
       </c>
       <c r="Y17" t="n">
         <v>312.3416858386569</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9357273645407</v>
+        <v>105.9357273645406</v>
       </c>
       <c r="C19" t="n">
-        <v>155.7657762630366</v>
+        <v>93.35056828123111</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71922020081571</v>
+        <v>74.71922020081563</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53770982917253</v>
+        <v>72.53770982917244</v>
       </c>
       <c r="F19" t="n">
-        <v>71.5247952055346</v>
+        <v>71.52479520553452</v>
       </c>
       <c r="G19" t="n">
-        <v>92.12955544163158</v>
+        <v>92.1295554416315</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85876209692414</v>
+        <v>70.85876209692405</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45616759244144</v>
+        <v>22.45616759244137</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03589985265067</v>
+        <v>15.0358998526506</v>
       </c>
       <c r="S19" t="n">
         <v>115.8727725140452</v>
@@ -2056,7 +2056,7 @@
         <v>145.6526964587725</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3155853882162</v>
+        <v>212.3155853882161</v>
       </c>
       <c r="V19" t="n">
         <v>178.2413905064313</v>
@@ -2065,7 +2065,7 @@
         <v>212.6267455191943</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8134025716405</v>
+        <v>214.2286105534469</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6884005346981</v>
@@ -2081,22 +2081,22 @@
         <v>308.8375888460839</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3766389536109</v>
+        <v>291.3766389536108</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7867888032863</v>
+        <v>280.7867888032862</v>
       </c>
       <c r="E20" t="n">
         <v>308.0341172548651</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9797929243148</v>
+        <v>332.9797929243147</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0254728360568</v>
+        <v>337.0254728360567</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7115115699238</v>
+        <v>163.0176837200244</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29150897077918</v>
+        <v>35.29150897077909</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0217173222235</v>
+        <v>130.0217173222234</v>
       </c>
       <c r="U20" t="n">
-        <v>97.91638104432873</v>
+        <v>177.0989191415052</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>253.8560056527382</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3447159000164</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8348478610724</v>
+        <v>295.8348478610723</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3416858386569</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9357273645407</v>
+        <v>105.9357273645406</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35056828123119</v>
+        <v>93.35056828123111</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71922020081571</v>
+        <v>74.71922020081563</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53770982917253</v>
+        <v>72.53770982917244</v>
       </c>
       <c r="F22" t="n">
-        <v>71.5247952055346</v>
+        <v>71.52479520553452</v>
       </c>
       <c r="G22" t="n">
-        <v>92.12955544163158</v>
+        <v>92.1295554416315</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85876209692414</v>
+        <v>70.85876209692405</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45616759244144</v>
+        <v>22.45616759244137</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03589985265067</v>
+        <v>15.0358998526506</v>
       </c>
       <c r="S22" t="n">
         <v>115.8727725140452</v>
@@ -2293,16 +2293,16 @@
         <v>145.6526964587725</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3155853882162</v>
+        <v>212.3155853882161</v>
       </c>
       <c r="V22" t="n">
         <v>178.2413905064313</v>
       </c>
       <c r="W22" t="n">
-        <v>275.0419535009997</v>
+        <v>275.0419535010008</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8134025716405</v>
+        <v>151.8134025716404</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6884005346981</v>
@@ -2318,22 +2318,22 @@
         <v>308.8375888460839</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3766389536109</v>
+        <v>291.3766389536108</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7867888032863</v>
+        <v>280.7867888032862</v>
       </c>
       <c r="E23" t="n">
         <v>308.0341172548651</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9797929243148</v>
+        <v>332.9797929243147</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0254728360568</v>
+        <v>337.0254728360567</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7115115699238</v>
+        <v>220.7115115699237</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29150897077919</v>
+        <v>35.29150897077911</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0217173222235</v>
+        <v>130.0217173222234</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0989191415053</v>
+        <v>177.0989191415052</v>
       </c>
       <c r="V23" t="n">
         <v>253.8560056527382</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3447159000164</v>
+        <v>275.3447159000163</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8348478610724</v>
+        <v>295.8348478610723</v>
       </c>
       <c r="Y23" t="n">
         <v>312.3416858386569</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9357273645407</v>
+        <v>105.9357273645406</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35056828123119</v>
+        <v>93.35056828123111</v>
       </c>
       <c r="D25" t="n">
-        <v>74.71922020081571</v>
+        <v>74.71922020081563</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53770982917253</v>
+        <v>134.952917810979</v>
       </c>
       <c r="F25" t="n">
-        <v>71.5247952055346</v>
+        <v>71.52479520553452</v>
       </c>
       <c r="G25" t="n">
-        <v>154.5447634234367</v>
+        <v>92.1295554416315</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85876209692414</v>
+        <v>70.85876209692405</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45616759244145</v>
+        <v>22.45616759244137</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03589985265069</v>
+        <v>15.0358998526506</v>
       </c>
       <c r="S25" t="n">
         <v>115.8727725140452</v>
@@ -2530,7 +2530,7 @@
         <v>145.6526964587725</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3155853882162</v>
+        <v>212.3155853882161</v>
       </c>
       <c r="V25" t="n">
         <v>178.2413905064313</v>
@@ -2539,7 +2539,7 @@
         <v>212.6267455191943</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8134025716405</v>
+        <v>151.8134025716404</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6884005346981</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958322</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797668</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433876</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957283</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I28" t="n">
-        <v>49.3772837912456</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958334</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515424</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2953,22 +2953,22 @@
         <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797667</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433718</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572828</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I31" t="n">
-        <v>49.3772837912456</v>
+        <v>49.37728379124458</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145481</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128494</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958327</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3916,7 +3916,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1481.973989799509</v>
+        <v>1981.37616423039</v>
       </c>
       <c r="C11" t="n">
-        <v>1481.973989799509</v>
+        <v>1798.242789645728</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.973989799509</v>
+        <v>1467.170137704436</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.378783866724</v>
+        <v>1108.574931771651</v>
       </c>
       <c r="F11" t="n">
-        <v>739.585925742575</v>
+        <v>724.7820736475021</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7065222530302</v>
+        <v>336.9026701579575</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31596852725608</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5051,13 +5051,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5069,22 +5069,22 @@
         <v>3242.508199801724</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.723498851405</v>
+        <v>3242.508199801724</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.3860687907</v>
+        <v>3016.170769741019</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.516228112589</v>
+        <v>3016.170769741019</v>
       </c>
       <c r="W11" t="n">
-        <v>2207.940619507933</v>
+        <v>2690.595161136364</v>
       </c>
       <c r="X11" t="n">
-        <v>1861.667907912312</v>
+        <v>2344.322449540743</v>
       </c>
       <c r="Y11" t="n">
-        <v>1498.721622601959</v>
+        <v>1981.37616423039</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F12" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064582</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5139,7 +5139,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125857</v>
@@ -5148,16 +5148,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>831.1297232674002</v>
+        <v>645.4593796217675</v>
       </c>
       <c r="C13" t="n">
-        <v>689.386587004952</v>
+        <v>619.0094275613261</v>
       </c>
       <c r="D13" t="n">
-        <v>566.4629942580751</v>
+        <v>496.0858348144491</v>
       </c>
       <c r="E13" t="n">
-        <v>445.7429473411408</v>
+        <v>375.3657878975147</v>
       </c>
       <c r="F13" t="n">
-        <v>326.0460465086892</v>
+        <v>255.6688870650629</v>
       </c>
       <c r="G13" t="n">
-        <v>185.5362565488669</v>
+        <v>255.6688870650629</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>136.6447469483794</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5203,7 +5203,7 @@
         <v>368.9257419016276</v>
       </c>
       <c r="L13" t="n">
-        <v>712.13744538694</v>
+        <v>712.1374453869398</v>
       </c>
       <c r="M13" t="n">
         <v>1082.946396023305</v>
@@ -5221,28 +5221,28 @@
         <v>2140.509788383022</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.872377806008</v>
+        <v>2140.509788383022</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.379540298294</v>
+        <v>2140.509788383022</v>
       </c>
       <c r="T13" t="n">
-        <v>1913.379540298294</v>
+        <v>1945.936219618006</v>
       </c>
       <c r="U13" t="n">
-        <v>1651.469720089396</v>
+        <v>1684.026399409109</v>
       </c>
       <c r="V13" t="n">
-        <v>1423.978278548968</v>
+        <v>1456.534957868681</v>
       </c>
       <c r="W13" t="n">
-        <v>1379.981178142811</v>
+        <v>1194.310834497179</v>
       </c>
       <c r="X13" t="n">
-        <v>1179.184673910253</v>
+        <v>993.5143302646201</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5851414321812</v>
+        <v>799.9147977865487</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1544.43696021432</v>
+        <v>1990.480867332119</v>
       </c>
       <c r="C14" t="n">
-        <v>1544.43696021432</v>
+        <v>1648.711397057166</v>
       </c>
       <c r="D14" t="n">
-        <v>1213.364308273028</v>
+        <v>1317.638745115874</v>
       </c>
       <c r="E14" t="n">
-        <v>854.7691023402431</v>
+        <v>959.043539183089</v>
       </c>
       <c r="F14" t="n">
-        <v>470.9762442160943</v>
+        <v>724.7820736475022</v>
       </c>
       <c r="G14" t="n">
-        <v>83.09684072654971</v>
+        <v>336.9026701579576</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218357</v>
@@ -5276,52 +5276,52 @@
         <v>66.51211643218357</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.508199801725</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3242.508199801725</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>3242.508199801725</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2938.638359123613</v>
+        <v>3021.735980931059</v>
       </c>
       <c r="W14" t="n">
-        <v>2613.062750518958</v>
+        <v>2696.160372326403</v>
       </c>
       <c r="X14" t="n">
-        <v>2266.790038923336</v>
+        <v>2349.887660730782</v>
       </c>
       <c r="Y14" t="n">
-        <v>1903.843753612983</v>
+        <v>2349.887660730782</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>901.2623537835962</v>
+        <v>675.5401108790683</v>
       </c>
       <c r="C16" t="n">
-        <v>759.519217521148</v>
+        <v>533.7969746166202</v>
       </c>
       <c r="D16" t="n">
-        <v>636.5956247742711</v>
+        <v>410.8733818697435</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8755778573368</v>
+        <v>290.1533349528092</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1786770248851</v>
+        <v>207.0219063920056</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6688870650628</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6447469483793</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2866539159351</v>
+        <v>138.2866539159352</v>
       </c>
       <c r="K16" t="n">
         <v>368.9257419016278</v>
       </c>
       <c r="L16" t="n">
-        <v>712.13744538694</v>
+        <v>712.1374453869402</v>
       </c>
       <c r="M16" t="n">
         <v>1082.946396023305</v>
@@ -5458,28 +5458,28 @@
         <v>2140.509788383022</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.872377806008</v>
+        <v>2140.509788383022</v>
       </c>
       <c r="S16" t="n">
-        <v>2077.872377806008</v>
+        <v>1976.016950875307</v>
       </c>
       <c r="T16" t="n">
-        <v>2077.872377806008</v>
+        <v>1976.016950875307</v>
       </c>
       <c r="U16" t="n">
-        <v>1815.962557597111</v>
+        <v>1714.107130666409</v>
       </c>
       <c r="V16" t="n">
-        <v>1588.471116056683</v>
+        <v>1486.615689125981</v>
       </c>
       <c r="W16" t="n">
-        <v>1450.113808659007</v>
+        <v>1224.391565754479</v>
       </c>
       <c r="X16" t="n">
-        <v>1249.317304426448</v>
+        <v>1023.59506152192</v>
       </c>
       <c r="Y16" t="n">
-        <v>1055.717771948377</v>
+        <v>829.995529043849</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1697.799689900515</v>
+        <v>1560.994624905362</v>
       </c>
       <c r="C17" t="n">
-        <v>1403.479852573636</v>
+        <v>1560.994624905362</v>
       </c>
       <c r="D17" t="n">
-        <v>1119.856833580417</v>
+        <v>1277.371605912144</v>
       </c>
       <c r="E17" t="n">
-        <v>808.711260595705</v>
+        <v>966.2260329274316</v>
       </c>
       <c r="F17" t="n">
-        <v>472.3680354196294</v>
+        <v>629.8828077513563</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4530372098843</v>
+        <v>289.4530372098842</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.957832749799</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.622764747554</v>
+        <v>3194.270753606925</v>
       </c>
       <c r="U17" t="n">
-        <v>3158.622764747554</v>
+        <v>3021.8176997524</v>
       </c>
       <c r="V17" t="n">
-        <v>2902.202557017515</v>
+        <v>2765.397492022361</v>
       </c>
       <c r="W17" t="n">
-        <v>2624.076581360933</v>
+        <v>2487.271516365779</v>
       </c>
       <c r="X17" t="n">
-        <v>2325.253502713385</v>
+        <v>2188.448437718232</v>
       </c>
       <c r="Y17" t="n">
-        <v>2009.756850351105</v>
+        <v>1872.951785355952</v>
       </c>
     </row>
     <row r="18">
@@ -5583,31 +5583,31 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1605877751699</v>
+        <v>569.1149231470831</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8214198327087</v>
+        <v>474.8214198327082</v>
       </c>
       <c r="D19" t="n">
-        <v>399.347460033905</v>
+        <v>399.3474600339046</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0770460650438</v>
+        <v>326.0770460650435</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8297781806654</v>
+        <v>253.8297781806652</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7696211689164</v>
+        <v>160.7696211689162</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19511400030612</v>
+        <v>89.19511400030601</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5698,7 +5698,7 @@
         <v>1912.106770459553</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.063565899912</v>
+        <v>1795.063565899911</v>
       </c>
       <c r="T19" t="n">
         <v>1647.939630082969</v>
@@ -5713,10 +5713,10 @@
         <v>1038.663143806361</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3162725218758</v>
+        <v>822.2706078937888</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1663729918777</v>
+        <v>676.1207083637908</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.314462232242</v>
+        <v>1797.037868444464</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.994624905362</v>
+        <v>1502.718031117584</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.371605912144</v>
+        <v>1219.095012124366</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2260329274313</v>
+        <v>907.9494391396536</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8828077513558</v>
+        <v>571.6062139635781</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4530372098843</v>
+        <v>231.1764434221071</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.957832749799</v>
+        <v>3289.957832749797</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.622764747553</v>
+        <v>3158.622764747552</v>
       </c>
       <c r="U20" t="n">
-        <v>3059.717329349241</v>
+        <v>2979.73496763492</v>
       </c>
       <c r="V20" t="n">
-        <v>3059.717329349241</v>
+        <v>2723.314759904881</v>
       </c>
       <c r="W20" t="n">
-        <v>2781.591353692659</v>
+        <v>2723.314759904881</v>
       </c>
       <c r="X20" t="n">
-        <v>2482.768275045111</v>
+        <v>2424.491681257333</v>
       </c>
       <c r="Y20" t="n">
-        <v>2167.271622682832</v>
+        <v>2108.995028895054</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
         <v>765.1517452158132</v>
@@ -5841,34 +5841,34 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1149231470837</v>
+        <v>569.1149231470831</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8214198327087</v>
+        <v>474.8214198327082</v>
       </c>
       <c r="D22" t="n">
-        <v>399.347460033905</v>
+        <v>399.3474600339046</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0770460650438</v>
+        <v>326.0770460650435</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8297781806654</v>
+        <v>253.8297781806652</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7696211689164</v>
+        <v>160.7696211689162</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19511400030612</v>
+        <v>89.19511400030601</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
@@ -5935,7 +5935,7 @@
         <v>1912.106770459553</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.063565899912</v>
+        <v>1795.063565899911</v>
       </c>
       <c r="T22" t="n">
         <v>1647.939630082969</v>
@@ -5947,13 +5947,13 @@
         <v>1253.43763422979</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6174791782749</v>
+        <v>975.6174791782742</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2706078937896</v>
+        <v>822.2706078937888</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1207083637914</v>
+        <v>676.1207083637908</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.179820792331</v>
+        <v>1862.17982079233</v>
       </c>
       <c r="C23" t="n">
         <v>1567.859983465451</v>
@@ -5978,13 +5978,13 @@
         <v>636.7481663114445</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3183957699732</v>
+        <v>296.3183957699731</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37747499227238</v>
+        <v>73.37747499227237</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37747499227238</v>
+        <v>73.37747499227237</v>
       </c>
       <c r="J23" t="n">
         <v>262.2566059512978</v>
@@ -5996,22 +5996,22 @@
         <v>1047.110192889553</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.044667005837</v>
+        <v>1580.642097561478</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.823484064619</v>
+        <v>2398.764228390366</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.795954943956</v>
+        <v>2901.736699269703</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.570321301134</v>
+        <v>3296.511065626881</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.856683056817</v>
+        <v>3544.797427382563</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.873749613619</v>
+        <v>3668.873749613618</v>
       </c>
       <c r="S23" t="n">
         <v>3633.225760754246</v>
@@ -6063,7 +6063,7 @@
         <v>92.38476659073442</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37747499227238</v>
+        <v>73.37747499227237</v>
       </c>
       <c r="J24" t="n">
         <v>167.0547444828897</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0259463352586</v>
+        <v>639.0259463352595</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7324430208837</v>
+        <v>544.7324430208846</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2584832220799</v>
+        <v>469.2584832220809</v>
       </c>
       <c r="E25" t="n">
-        <v>395.9880692532188</v>
+        <v>332.9424046251324</v>
       </c>
       <c r="F25" t="n">
-        <v>323.7408013688404</v>
+        <v>260.6951367407542</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6349797290053</v>
+        <v>167.6349797290051</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06047256039506</v>
+        <v>96.06047256039497</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37747499227238</v>
+        <v>73.37747499227237</v>
       </c>
       <c r="J25" t="n">
         <v>118.5001074392079</v>
@@ -6184,13 +6184,13 @@
         <v>1260.302992789879</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.52850236645</v>
+        <v>1045.528502366451</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1816310819645</v>
+        <v>892.1816310819652</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0317315519663</v>
+        <v>746.0317315519671</v>
       </c>
     </row>
     <row r="26">
@@ -6212,55 +6212,55 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557148</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455613</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1261.907203722594</v>
       </c>
       <c r="M26" t="n">
-        <v>2033.429937623799</v>
+        <v>2240.457506552423</v>
       </c>
       <c r="N26" t="n">
-        <v>2580.208754682581</v>
+        <v>2787.236323611205</v>
       </c>
       <c r="O26" t="n">
-        <v>3083.181225561919</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P26" t="n">
-        <v>3684.983160847721</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899669</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913845</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415474</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519672</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="29">
@@ -6449,61 +6449,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>393.2994530991701</v>
+        <v>270.0260478557147</v>
       </c>
       <c r="K29" t="n">
-        <v>727.1188267890166</v>
+        <v>603.8454215455613</v>
       </c>
       <c r="L29" t="n">
-        <v>1178.153040037425</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M29" t="n">
-        <v>1711.68494470935</v>
+        <v>2001.896141870841</v>
       </c>
       <c r="N29" t="n">
-        <v>2258.463761768132</v>
+        <v>2548.674958929623</v>
       </c>
       <c r="O29" t="n">
-        <v>2761.436232647469</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094415</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
@@ -6595,61 +6595,61 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697989</v>
+        <v>774.1010502697993</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899652</v>
+        <v>652.6145002899657</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257027</v>
+        <v>549.9474938257032</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913829</v>
+        <v>449.4840331913833</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415462</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643384</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302696</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982167</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6661,10 +6661,10 @@
         <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347422</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519653</v>
+        <v>908.2998821519658</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>625.3777437664567</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1076.411957014865</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623799</v>
+        <v>1609.94386168679</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285459</v>
+        <v>2156.722678745572</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164796</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
         <v>786.3326864982171</v>
@@ -6886,7 +6886,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
@@ -6938,25 +6938,25 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659141</v>
+        <v>887.977189138478</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1339.011402386887</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486248</v>
+        <v>1872.543307058811</v>
       </c>
       <c r="N35" t="n">
-        <v>2577.0444828579</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O35" t="n">
-        <v>3080.016953737237</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R35" t="n">
         <v>4057.345844834458</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D37" t="n">
         <v>549.9474938257041</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F37" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
@@ -7099,7 +7099,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
@@ -7181,19 +7181,19 @@
         <v>1054.87963479397</v>
       </c>
       <c r="M38" t="n">
-        <v>2033.429937623799</v>
+        <v>1653.273486348999</v>
       </c>
       <c r="N38" t="n">
-        <v>2852.295579285458</v>
+        <v>2200.052303407781</v>
       </c>
       <c r="O38" t="n">
-        <v>3355.268050164795</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834458</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
@@ -7330,13 +7330,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
@@ -7351,7 +7351,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R40" t="n">
         <v>2271.591606277852</v>
@@ -7360,22 +7360,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V40" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X40" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
         <v>1062.439973388314</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467794</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7412,22 +7412,22 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>924.7493799910142</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L41" t="n">
-        <v>1375.783593239423</v>
+        <v>1339.011402386887</v>
       </c>
       <c r="M41" t="n">
-        <v>1909.315497911347</v>
+        <v>1872.543307058812</v>
       </c>
       <c r="N41" t="n">
-        <v>2456.09431497013</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O41" t="n">
-        <v>2959.066785849467</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P41" t="n">
-        <v>3672.421873296413</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q41" t="n">
         <v>3998.328778277656</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D43" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
         <v>449.4840331913842</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
         <v>229.7905149643394</v>
@@ -7567,16 +7567,16 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973143</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7588,16 +7588,16 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
         <v>1711.385138644068</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="44">
@@ -7625,13 +7625,13 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D44" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
         <v>698.9037015467793</v>
@@ -7649,25 +7649,25 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>603.8454215455611</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.87963479397</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M44" t="n">
-        <v>2033.429937623799</v>
+        <v>2240.457506552424</v>
       </c>
       <c r="N44" t="n">
-        <v>2852.295579285459</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O44" t="n">
-        <v>3355.268050164796</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521974</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834459</v>
@@ -7804,16 +7804,16 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
@@ -7834,7 +7834,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644068</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>218.2111409464628</v>
+        <v>218.2111409464629</v>
       </c>
       <c r="L5" t="n">
-        <v>233.4357089658652</v>
+        <v>233.4357089658653</v>
       </c>
       <c r="M5" t="n">
-        <v>227.7528737187177</v>
+        <v>227.7528737187178</v>
       </c>
       <c r="N5" t="n">
-        <v>226.7777408199136</v>
+        <v>226.7777408199137</v>
       </c>
       <c r="O5" t="n">
-        <v>227.6097508526262</v>
+        <v>227.6097508526263</v>
       </c>
       <c r="P5" t="n">
-        <v>229.1091522321464</v>
+        <v>229.1091522321465</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,19 +8295,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>136.5653954824674</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L6" t="n">
         <v>136.8385818314783</v>
       </c>
       <c r="M6" t="n">
-        <v>140.1317786452012</v>
+        <v>140.1317786452013</v>
       </c>
       <c r="N6" t="n">
-        <v>129.2864630672353</v>
+        <v>129.2864630672354</v>
       </c>
       <c r="O6" t="n">
-        <v>140.7160931202017</v>
+        <v>140.7160931202018</v>
       </c>
       <c r="P6" t="n">
         <v>132.4654202195568</v>
@@ -8377,10 +8377,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>133.899719662286</v>
+        <v>133.8997196622861</v>
       </c>
       <c r="M7" t="n">
-        <v>137.8872852940283</v>
+        <v>137.8872852940284</v>
       </c>
       <c r="N7" t="n">
         <v>126.6717389884799</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>164.4450187886097</v>
+        <v>164.445018788609</v>
       </c>
       <c r="K8" t="n">
-        <v>195.2094266592917</v>
+        <v>195.2094266592907</v>
       </c>
       <c r="L8" t="n">
-        <v>204.9000484419203</v>
+        <v>204.9000484419191</v>
       </c>
       <c r="M8" t="n">
-        <v>196.0014531526791</v>
+        <v>196.0014531526778</v>
       </c>
       <c r="N8" t="n">
-        <v>194.5125490740282</v>
+        <v>194.5125490740269</v>
       </c>
       <c r="O8" t="n">
-        <v>197.1426452201067</v>
+        <v>197.1426452201054</v>
       </c>
       <c r="P8" t="n">
-        <v>203.1061824561919</v>
+        <v>203.1061824561909</v>
       </c>
       <c r="Q8" t="n">
-        <v>201.1836244567235</v>
+        <v>201.1836244567227</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>116.9502528485209</v>
+        <v>116.9502528485205</v>
       </c>
       <c r="K9" t="n">
-        <v>120.9423422814165</v>
+        <v>120.9423422814159</v>
       </c>
       <c r="L9" t="n">
-        <v>115.8314587981506</v>
+        <v>115.8314587981498</v>
       </c>
       <c r="M9" t="n">
-        <v>115.6174569072891</v>
+        <v>115.6174569072881</v>
       </c>
       <c r="N9" t="n">
-        <v>104.1233201775617</v>
+        <v>104.1233201775606</v>
       </c>
       <c r="O9" t="n">
-        <v>117.6967333951452</v>
+        <v>117.6967333951443</v>
       </c>
       <c r="P9" t="n">
-        <v>113.990354617597</v>
+        <v>113.9903546175962</v>
       </c>
       <c r="Q9" t="n">
-        <v>126.6229640213395</v>
+        <v>126.622964021339</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>121.8405463218795</v>
+        <v>121.840546321879</v>
       </c>
       <c r="M10" t="n">
-        <v>125.1725778274373</v>
+        <v>125.1725778274368</v>
       </c>
       <c r="N10" t="n">
-        <v>114.2593588466759</v>
+        <v>114.2593588466754</v>
       </c>
       <c r="O10" t="n">
-        <v>126.0552829419914</v>
+        <v>126.0552829419909</v>
       </c>
       <c r="P10" t="n">
-        <v>127.1165875773787</v>
+        <v>127.1165875773783</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>339.8005751963223</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>274.0841553233388</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>209.1187564935599</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>209.1187564935596</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5185911550055</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>240.971075435941</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10349,22 +10349,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>21.74982042514705</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>274.835176366543</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>117.9051702753171</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>277.2206841544139</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,22 +10829,22 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>65.51711806374215</v>
       </c>
       <c r="N38" t="n">
-        <v>274.8351763665421</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,25 +11060,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>287.0017854473913</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>78.40458911672832</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11297,16 +11297,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>334.4868774152284</v>
       </c>
       <c r="N44" t="n">
-        <v>274.835176366543</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.28796821707176</v>
+        <v>15.28796821707175</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.10714246085647</v>
+        <v>15.10714246085646</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>339.2325689902513</v>
+        <v>355.8127254646765</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3517755722034</v>
+        <v>157.0497347333884</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7619254218788</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.65581357412179</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.996853940816</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8311422713308</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>114.140252359987</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1046920602241</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43130421103393</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01103647124319</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>162.8479091326378</v>
       </c>
       <c r="T13" t="n">
-        <v>192.627833077365</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>216.0447527356917</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3517755722034</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>148.0360786626761</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>251.2677711370938</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65581357412177</v>
+        <v>14.65581357412174</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26664558937161</v>
       </c>
       <c r="T14" t="n">
-        <v>176.996853940816</v>
+        <v>176.9968539408159</v>
       </c>
       <c r="U14" t="n">
         <v>224.0740557600978</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.3168224572494</v>
       </c>
     </row>
     <row r="15">
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>36.19981754893141</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8338987155166</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43130421103388</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01103647124312</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8479091326377</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>192.627833077365</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>122.6281478140876</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>291.3766389536108</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>155.939624608409</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>35.29150897077909</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0989191415053</v>
+        <v>6.370395825526047</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>57.69382784989932</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24023,13 +24023,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>79.18253809717658</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8560056527382</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>275.3447159000163</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.575699570821598e-12</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26314,22 +26314,22 @@
         <v>184337.1762113337</v>
       </c>
       <c r="C2" t="n">
-        <v>184337.4407294618</v>
+        <v>184337.440729462</v>
       </c>
       <c r="D2" t="n">
         <v>184340.6793187558</v>
       </c>
       <c r="E2" t="n">
-        <v>164146.8855179142</v>
+        <v>164146.8855179143</v>
       </c>
       <c r="F2" t="n">
         <v>164146.8855179143</v>
       </c>
       <c r="G2" t="n">
-        <v>178769.6779009028</v>
+        <v>178769.6779009027</v>
       </c>
       <c r="H2" t="n">
-        <v>178769.6779009028</v>
+        <v>178769.6779009027</v>
       </c>
       <c r="I2" t="n">
         <v>184734.3982194637</v>
@@ -26347,13 +26347,13 @@
         <v>184734.3982194639</v>
       </c>
       <c r="N2" t="n">
+        <v>184734.3982194638</v>
+      </c>
+      <c r="O2" t="n">
         <v>184734.3982194639</v>
       </c>
-      <c r="O2" t="n">
-        <v>184734.3982194638</v>
-      </c>
       <c r="P2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.398219464</v>
       </c>
     </row>
     <row r="3">
@@ -26366,25 +26366,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3345.42689831237</v>
+        <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>38521.85015936189</v>
+        <v>38521.8501593636</v>
       </c>
       <c r="E3" t="n">
-        <v>1106215.961015504</v>
+        <v>1106215.961015502</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487399</v>
+        <v>37580.10929487401</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22820.53767071745</v>
+        <v>22820.53767071768</v>
       </c>
       <c r="J3" t="n">
         <v>25410.34822049033</v>
@@ -26396,7 +26396,7 @@
         <v>37580.10929487405</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920729</v>
+        <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>435241.0409526688</v>
       </c>
       <c r="D4" t="n">
-        <v>422862.8573343061</v>
+        <v>422862.8573343055</v>
       </c>
       <c r="E4" t="n">
-        <v>38195.30988554745</v>
+        <v>38195.30988554741</v>
       </c>
       <c r="F4" t="n">
-        <v>38195.30988554745</v>
+        <v>38195.30988554753</v>
       </c>
       <c r="G4" t="n">
-        <v>75223.10714400178</v>
+        <v>75223.10714400183</v>
       </c>
       <c r="H4" t="n">
-        <v>75223.10714400178</v>
+        <v>75223.10714400181</v>
       </c>
       <c r="I4" t="n">
         <v>86759.13279157181</v>
       </c>
       <c r="J4" t="n">
-        <v>82806.76150409834</v>
+        <v>82806.76150409844</v>
       </c>
       <c r="K4" t="n">
         <v>82806.76150409834</v>
       </c>
       <c r="L4" t="n">
-        <v>82806.76150409842</v>
+        <v>82806.76150409839</v>
       </c>
       <c r="M4" t="n">
+        <v>82806.76150409838</v>
+      </c>
+      <c r="N4" t="n">
+        <v>82806.76150409838</v>
+      </c>
+      <c r="O4" t="n">
         <v>82806.76150409839</v>
       </c>
-      <c r="N4" t="n">
-        <v>82806.76150409839</v>
-      </c>
-      <c r="O4" t="n">
-        <v>82806.76150409842</v>
-      </c>
       <c r="P4" t="n">
-        <v>82806.76150409842</v>
+        <v>82806.76150409841</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26473,25 @@
         <v>33707.69021107268</v>
       </c>
       <c r="D5" t="n">
-        <v>34688.26308058917</v>
+        <v>34688.2630805892</v>
       </c>
       <c r="E5" t="n">
         <v>76569.57187911056</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.57187911058</v>
+        <v>76569.57187911056</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.72463949904</v>
+        <v>80518.72463949902</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.72463949904</v>
+        <v>80518.72463949902</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.39714516663</v>
+        <v>85736.39714516661</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-285564.3035079145</v>
+        <v>-285568.7170857826</v>
       </c>
       <c r="C6" t="n">
-        <v>-287956.717332592</v>
+        <v>-287961.1279713695</v>
       </c>
       <c r="D6" t="n">
-        <v>-311732.2912555014</v>
+        <v>-311736.6659099548</v>
       </c>
       <c r="E6" t="n">
-        <v>-1056833.957262248</v>
+        <v>-1057062.707403375</v>
       </c>
       <c r="F6" t="n">
-        <v>49382.00375325611</v>
+        <v>49153.25361212796</v>
       </c>
       <c r="G6" t="n">
-        <v>-14552.26317747196</v>
+        <v>-14618.53784767843</v>
       </c>
       <c r="H6" t="n">
-        <v>23027.84611740199</v>
+        <v>22961.57144719566</v>
       </c>
       <c r="I6" t="n">
-        <v>-10581.66938799219</v>
+        <v>-10581.66938799244</v>
       </c>
       <c r="J6" t="n">
-        <v>-12860.65317993095</v>
+        <v>-12860.653179931</v>
       </c>
       <c r="K6" t="n">
-        <v>12549.69504055937</v>
+        <v>12549.69504055931</v>
       </c>
       <c r="L6" t="n">
         <v>-25030.41425431476</v>
       </c>
       <c r="M6" t="n">
-        <v>-194638.8732515135</v>
+        <v>-194638.8732515136</v>
       </c>
       <c r="N6" t="n">
-        <v>12549.69504055934</v>
+        <v>12549.69504055927</v>
       </c>
       <c r="O6" t="n">
-        <v>12549.69504055928</v>
+        <v>12549.69504055937</v>
       </c>
       <c r="P6" t="n">
-        <v>12549.69504055934</v>
+        <v>12549.69504055944</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="3">
@@ -26738,31 +26738,31 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242459</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>48.65426975179671</v>
+        <v>48.65426975179857</v>
       </c>
       <c r="E3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="F3" t="n">
         <v>1089.776700593298</v>
       </c>
-      <c r="F3" t="n">
-        <v>1089.776700593299</v>
-      </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
+        <v>1089.776700593298</v>
+      </c>
+      <c r="K3" t="n">
         <v>1089.776700593299</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26799,25 +26799,25 @@
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2184374034048</v>
+        <v>917.2184374034046</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
         <v>1014.336461208615</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242459</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>44.98040685855425</v>
+        <v>44.98040685855625</v>
       </c>
       <c r="E3" t="n">
-        <v>1041.122430841502</v>
+        <v>1041.1224308415</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>-3.139307860380569e-14</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.81698200111168</v>
+        <v>85.81698200111191</v>
       </c>
       <c r="J4" t="n">
         <v>97.11802380520987</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27637,7 +27637,7 @@
         <v>209.9064962068211</v>
       </c>
       <c r="J5" t="n">
-        <v>10.69576364311367</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.395781178313099</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
         <v>148.9413660216818</v>
@@ -27713,7 +27713,7 @@
         <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
-        <v>89.12455904281174</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>99.66720016097577</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
         <v>171.5363898835276</v>
@@ -27795,10 +27795,10 @@
         <v>155.2512431493756</v>
       </c>
       <c r="J7" t="n">
-        <v>92.89079271141463</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>21.49978743611829</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,10 +27813,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.920177260816387</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>85.60728995481477</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
         <v>176.9955073465141</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.4716642661367</v>
+        <v>337.4716642661365</v>
       </c>
       <c r="I8" t="n">
-        <v>202.935211240331</v>
+        <v>202.9352112403307</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>137.5825701128229</v>
+        <v>137.5825701128224</v>
       </c>
       <c r="S8" t="n">
-        <v>204.5629472868722</v>
+        <v>204.562947286872</v>
       </c>
       <c r="T8" t="n">
-        <v>222.2396322140269</v>
+        <v>222.2396322140268</v>
       </c>
       <c r="U8" t="n">
         <v>251.3300053034942</v>
@@ -27950,7 +27950,7 @@
         <v>111.2247206327846</v>
       </c>
       <c r="I9" t="n">
-        <v>85.79346287451315</v>
+        <v>85.79346287451301</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>93.66019412805413</v>
+        <v>93.66019412805387</v>
       </c>
       <c r="S9" t="n">
-        <v>169.7392953264901</v>
+        <v>169.73929532649</v>
       </c>
       <c r="T9" t="n">
         <v>199.7429053561244</v>
@@ -28026,16 +28026,16 @@
         <v>167.9032421507096</v>
       </c>
       <c r="H10" t="n">
-        <v>161.4471089694518</v>
+        <v>161.4471089694517</v>
       </c>
       <c r="I10" t="n">
-        <v>152.8119778069477</v>
+        <v>152.8119778069476</v>
       </c>
       <c r="J10" t="n">
-        <v>87.15615952880846</v>
+        <v>87.15615952880823</v>
       </c>
       <c r="K10" t="n">
-        <v>12.07602350739168</v>
+        <v>12.07602350739129</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.81524851917308</v>
+        <v>78.8152485191728</v>
       </c>
       <c r="R10" t="n">
-        <v>173.3484074723763</v>
+        <v>173.3484074723761</v>
       </c>
       <c r="S10" t="n">
-        <v>222.4875777891986</v>
+        <v>222.4875777891985</v>
       </c>
       <c r="T10" t="n">
         <v>227.5707122678988</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880412</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880422</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="C19" t="n">
-        <v>11.48104483559126</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89625281739664</v>
+        <v>11.48104483559027</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="W22" t="n">
-        <v>11.48104483559126</v>
+        <v>11.48104483559024</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89625281739664</v>
+        <v>11.48104483559015</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="G25" t="n">
-        <v>11.48104483559149</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739673</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859125</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859341</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P37" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.9751366185921</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.9751366185921</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859222</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01476929806328626</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1512560737906304</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5693933635848439</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>1.253525711498843</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>1.878710098517751</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>2.330706004122048</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>2.593359508555015</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>2.635322776677327</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060524</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
-        <v>2.123843523123145</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.594918036231705</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194679061</v>
+        <v>0.9277519194678707</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3365553796171359</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06465260227203562</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0011815438450629</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007902271128861139</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07631930274452733</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2720738086033331</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578852</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>1.276043491891582</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>1.715797948395924</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>2.00225527681714</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>2.055249016097968</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>1.880151324242676</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>1.508987194773493</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.008717977782345</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4906339916673611</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1467812203102057</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03185169810273414</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0005198862584777067</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945418</v>
+        <v>0.006624998659945164</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0589022608129693</v>
+        <v>0.05890226081296705</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1992317778827223</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>0.468387405258141</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7697043897645675</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0.984956618952249</v>
+        <v>0.9849566189522113</v>
       </c>
       <c r="M7" t="n">
-        <v>1.038498653576717</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013805476753284</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9364134469530127</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8012634742901255</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5547532968796114</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553639</v>
+        <v>0.2978840306553525</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1154556584646851</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245613042</v>
+        <v>0.02830681245612933</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003613635632697505</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1955950542785796</v>
+        <v>0.1955950542785871</v>
       </c>
       <c r="H8" t="n">
-        <v>2.003137849630504</v>
+        <v>2.00313784963058</v>
       </c>
       <c r="I8" t="n">
-        <v>7.540678330074948</v>
+        <v>7.540678330075234</v>
       </c>
       <c r="J8" t="n">
-        <v>16.60088573807661</v>
+        <v>16.60088573807724</v>
       </c>
       <c r="K8" t="n">
-        <v>24.88042438568889</v>
+        <v>24.88042438568984</v>
       </c>
       <c r="L8" t="n">
-        <v>30.86636652806698</v>
+        <v>30.86636652806815</v>
       </c>
       <c r="M8" t="n">
-        <v>34.34478007459366</v>
+        <v>34.34478007459497</v>
       </c>
       <c r="N8" t="n">
-        <v>34.90051452256268</v>
+        <v>34.90051452256401</v>
       </c>
       <c r="O8" t="n">
-        <v>32.95556620158006</v>
+        <v>32.95556620158131</v>
       </c>
       <c r="P8" t="n">
-        <v>28.12681329907761</v>
+        <v>28.12681329907869</v>
       </c>
       <c r="Q8" t="n">
-        <v>21.12206541772598</v>
+        <v>21.12206541772678</v>
       </c>
       <c r="R8" t="n">
-        <v>12.28654782832684</v>
+        <v>12.2865478283273</v>
       </c>
       <c r="S8" t="n">
-        <v>4.457122299373137</v>
+        <v>4.457122299373307</v>
       </c>
       <c r="T8" t="n">
-        <v>0.8562173501044826</v>
+        <v>0.8562173501045153</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01564760434228636</v>
+        <v>0.01564760434228696</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1046525802208458</v>
+        <v>0.1046525802208498</v>
       </c>
       <c r="H9" t="n">
-        <v>1.010723603711853</v>
+        <v>1.010723603711891</v>
       </c>
       <c r="I9" t="n">
-        <v>3.603169976901927</v>
+        <v>3.603169976902064</v>
       </c>
       <c r="J9" t="n">
-        <v>9.887373818145784</v>
+        <v>9.887373818146161</v>
       </c>
       <c r="K9" t="n">
-        <v>16.89909669294245</v>
+        <v>16.89909669294309</v>
       </c>
       <c r="L9" t="n">
-        <v>22.72292098172355</v>
+        <v>22.72292098172442</v>
       </c>
       <c r="M9" t="n">
-        <v>26.5165770147292</v>
+        <v>26.51657701473021</v>
       </c>
       <c r="N9" t="n">
-        <v>27.21839190577164</v>
+        <v>27.21839190577267</v>
       </c>
       <c r="O9" t="n">
-        <v>24.89951104929921</v>
+        <v>24.89951104930016</v>
       </c>
       <c r="P9" t="n">
-        <v>19.98405279673326</v>
+        <v>19.98405279673402</v>
       </c>
       <c r="Q9" t="n">
-        <v>13.358810064682</v>
+        <v>13.35881006468251</v>
       </c>
       <c r="R9" t="n">
-        <v>6.497640024589005</v>
+        <v>6.497640024589253</v>
       </c>
       <c r="S9" t="n">
-        <v>1.943875777347726</v>
+        <v>1.9438757773478</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4218233386971807</v>
+        <v>0.4218233386971968</v>
       </c>
       <c r="U9" t="n">
-        <v>0.006885038172424066</v>
+        <v>0.006885038172424329</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08773720774914159</v>
+        <v>0.08773720774914494</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7800635379878231</v>
+        <v>0.7800635379878529</v>
       </c>
       <c r="I10" t="n">
-        <v>2.63849712031055</v>
+        <v>2.63849712031065</v>
       </c>
       <c r="J10" t="n">
-        <v>6.203020587864311</v>
+        <v>6.203020587864548</v>
       </c>
       <c r="K10" t="n">
-        <v>10.19346831849118</v>
+        <v>10.19346831849156</v>
       </c>
       <c r="L10" t="n">
-        <v>13.04412995935875</v>
+        <v>13.04412995935924</v>
       </c>
       <c r="M10" t="n">
-        <v>13.75320612016771</v>
+        <v>13.75320612016824</v>
       </c>
       <c r="N10" t="n">
-        <v>13.42618561855729</v>
+        <v>13.4261856185578</v>
       </c>
       <c r="O10" t="n">
-        <v>12.4012555098514</v>
+        <v>12.40125550985187</v>
       </c>
       <c r="P10" t="n">
-        <v>10.6114164717689</v>
+        <v>10.61141647176931</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.346794732521303</v>
+        <v>7.346794732521583</v>
       </c>
       <c r="R10" t="n">
-        <v>3.94498390479322</v>
+        <v>3.944983904793371</v>
       </c>
       <c r="S10" t="n">
-        <v>1.529020247773676</v>
+        <v>1.529020247773734</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3748771603826959</v>
+        <v>0.3748771603827101</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004785665877225911</v>
+        <v>0.004785665877226094</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138789</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32470,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32944,40 +32944,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33096,43 +33096,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33181,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33515,10 +33515,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33752,10 +33752,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34226,10 +34226,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49953281187041</v>
+        <v>72.49953281187037</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9687757431237</v>
+        <v>232.9687757431238</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6784883690024</v>
+        <v>346.6784883690023</v>
       </c>
       <c r="M13" t="n">
         <v>374.554495592288</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7780623663442</v>
+        <v>371.7780623663443</v>
       </c>
       <c r="O13" t="n">
         <v>329.2742464214439</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340047</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49953281187041</v>
+        <v>72.49953281187047</v>
       </c>
       <c r="K16" t="n">
         <v>232.9687757431238</v>
@@ -35823,7 +35823,7 @@
         <v>261.8781873439146</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3153547366978</v>
+        <v>105.3153547366979</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.794304803719</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>878.721691026549</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>826.3859907362503</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923323</v>
+        <v>664.7088708858921</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>607.8807427129316</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36762,16 +36762,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861313</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637039</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>315.3055921237181</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>749.0240763241603</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165873</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,22 +37069,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>358.9411069805475</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>827.1370117794545</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37163,10 +37163,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37306,7 +37306,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>455.0964568307176</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37315,7 +37315,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>829.5225195673254</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
@@ -37324,10 +37324,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37400,10 +37400,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37482,7 +37482,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,22 +37549,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>604.4382338939689</v>
       </c>
       <c r="N38" t="n">
-        <v>827.1370117794536</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,25 +37780,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>742.5918998397235</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>329.1988939204478</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37874,10 +37874,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629118</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -38017,16 +38017,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>873.4079932454551</v>
       </c>
       <c r="N44" t="n">
-        <v>827.1370117794545</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
